--- a/data/trans_bre/P1803_2016_2023-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1803_2016_2023-Estudios-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>0.4163700512744561</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>2.644433133507386</v>
+        <v>2.644433133507387</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>0.1115428155757418</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.6552561945546457</v>
+        <v>0.655256194554646</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.45293840313355</v>
+        <v>-1.543804575581763</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3981279297681012</v>
+        <v>0.4289860372277476</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.3038996966764316</v>
+        <v>-0.3290723044365747</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.09121317285225275</v>
+        <v>0.07823097867922456</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.465549850667473</v>
+        <v>2.463271872571549</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.50968962790246</v>
+        <v>4.668768001309383</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.9152573713422233</v>
+        <v>0.9384689222817755</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.648514439616048</v>
+        <v>1.649020601463463</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.4022504931625108</v>
+        <v>-0.2895198024842819</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.04242924623725492</v>
+        <v>0.08510686967561108</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.08155524916188418</v>
+        <v>-0.06608675451891205</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.001452131494152676</v>
+        <v>0.009797586797089787</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.424814790002833</v>
+        <v>2.48546135927797</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.445446601848952</v>
+        <v>3.427432956896394</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.7040423975872886</v>
+        <v>0.7236729190083702</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5177189363111684</v>
+        <v>0.5085823326482601</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>1.868240736948568</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>2.759992406024221</v>
+        <v>2.759992406024223</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0.2694610083710708</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.2257554015272215</v>
+        <v>0.2257554015272217</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.614540609795037</v>
+        <v>-1.491332595061706</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.039049694006467</v>
+        <v>-1.160653354701406</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.1832147780896817</v>
+        <v>-0.1836990794966266</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.07455804783045568</v>
+        <v>-0.08856554904141865</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.416158678574397</v>
+        <v>5.524630401775572</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.371867735769235</v>
+        <v>6.35566274942842</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>1.030992770418772</v>
+        <v>1.037950210577836</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.6477602766244531</v>
+        <v>0.6210953343464152</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>0.9413475305317658</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>1.902085259585183</v>
+        <v>1.902085259585182</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.2058608771173022</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.2374726394483107</v>
+        <v>0.2374726394483105</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.1205901630513231</v>
+        <v>-0.09095747172511744</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5702219454055991</v>
+        <v>0.6659554314468453</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.02433245631405058</v>
+        <v>-0.02635453771397066</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.06254872994961327</v>
+        <v>0.06848664500340826</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.039246052174972</v>
+        <v>1.973698227226812</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.23233846943711</v>
+        <v>3.248640484086553</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5141021041727966</v>
+        <v>0.4786565162472536</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4570700863969789</v>
+        <v>0.4455782264104263</v>
       </c>
     </row>
     <row r="16">
